--- a/experiments/dbscan-ajk/instructor-xl/0.07/prediction.xlsx
+++ b/experiments/dbscan-ajk/instructor-xl/0.07/prediction.xlsx
@@ -468,337 +468,337 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
+          <t>AE Locked. Metering disabled</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accelerator is Over Range</t>
+          <t>APAS has been enabled</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>API Automatic Return Home</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
+          <t>API Automatic Takeoff</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
+          <t>Abnormal compass function or GPS signal detected. Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Cannot find subject</t>
+          <t>Accelerator is Over Range</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>ActiveTrack Flight Ended: Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
+          <t>ActiveTrack Flight Ended: Cannot find subject</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AE Locked. Metering disabled</t>
+          <t>ActiveTrack Flight Ended: Control Signal Timeout (RC)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>ActiveTrack Flight Stopped Aircraft Entering Restricted Area</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>Advanced RTH Image Transmission Recovered. Aircraft is returning home</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
+          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Aircraft battery level low. Return to home promptly</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft returning to home</t>
+          <t>Aircraft ActiveTrack max speed of nnn. Left and right Obstacle Sensing systems are available</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Low battery. Return to home promptly</t>
+          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Aircraft close to Home Point. go home shifts to landing.</t>
+          <t>Aircraft GPS signal too weak. Home Point not updated</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft antenna satellite signal searching error. Fly with caution</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft approaching obstacle sensing blind spot and may be unable to detect obstacles. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
+          <t>Aircraft battery level low. Return to home promptly</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Aircraft flight control locked</t>
+          <t>Aircraft close to Home Point. go home shifts to landing.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller A</t>
+          <t>Aircraft exceeded distance limit and has exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller B</t>
+          <t>Aircraft flight control locked</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
+          <t>Aircraft flight control obtained by remote controller A</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Aircraft GPS interference. Aircraft unable to fly stably. Land or return to home promptly</t>
+          <t>Aircraft flight control obtained by remote controller B</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Aircraft GPS signal too weak. Home Point not updated</t>
+          <t>Aircraft flight control obtained by remote controller UNKNOWN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
+          <t>Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t xml:space="preserve">Aircraft in Attitude mode. Unable to hover. Fly with caution </t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -818,27 +818,27 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Fly with caution</t>
+          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Strong Interference Now. Fly with caution.</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
+          <t>Aircraft in high interference environment. Fly with caution</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -848,167 +848,167 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
+          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Strong Interference. Fly with caution.</t>
+          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Aircraft in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone. Unable to take off. Check map to find Recommended Zones</t>
+          <t>Aircraft is entering a restricted area</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Aircraft is close to Home Point. Return-to-Home Mode is now Auto Landing Mode.</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point. Initiating Return to Home will now trigger Auto Landing.</t>
+          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Aircraft is entering a restricted area</t>
+          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aircraft is flying back to the start point</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>The aircraft is flying back to the start point</t>
+          <t>Aircraft is now following you.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Aircraft is in QuickShot Mode. Ensure your enviornment is free of potential obstacles.</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Aircraft is in Sport Mode. Exit this mode and try again</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Aircraft is landing due to low voltage, which cannot be stopped. You can decelerate the descending speed and avoid obstacles using sticks</t>
+          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Aircraft is now following you.</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1018,5141 +1018,5141 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. Minimum RTH Altitude is 98ft. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH.</t>
+          <t>Aircraft is too far away</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is 30m. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary.</t>
+          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point. RTH Altitude is nnn. You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary</t>
+          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Aircraft is tilted, please keep the aircraft stationary and level before flight</t>
+          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Aircraft is too far away</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Aircraft max power load reached. Decrease altitude and fly with caution. If this issue persists, land immediately</t>
+          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Aircraft not in flight. Vision system and obstacle sensing unavailable</t>
+          <t>Aircraft power insufficient. Fly with caution</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Aircraft not linked to phone number. Flight range restricted. Check and link phone number</t>
+          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft processor overheated. Automatically returning to home</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Aircraft pitch angle too large. Ensure aircraft is level before taking off</t>
+          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient. Fly with caution</t>
+          <t>Aircraft settings updated to comply with national regulations</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Aircraft processor chip overheated. Power off aircraft and wait for temperature to return to normal</t>
+          <t>Aircraft switched to ATTI mode</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aircraft processor overheated. Automatically returning to home</t>
+          <t>Aircraft takeoff altitude error. Restart aircraft</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Aircraft propulsion system error. Forced landing. Manually control the aircraft and land in an open area</t>
+          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Aircraft settings updated to comply with national regulations</t>
+          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Aircraft switched to ATTI mode</t>
+          <t>Aircraft will automatically descend in nnn</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Aircraft takeoff altitude error. Restart aircraft</t>
+          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Aircraft too Far. Cannot enter Follow Me Mode</t>
+          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Altitude Zone nnn</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Aircraft will automatically descend in nnn</t>
+          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Aircraft will not enter S-mode if powered on with the remote controller set to S-mode. Please switch to Normal mode, then back to S-mode to enable it</t>
+          <t>Ambient Light is too weak.</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>AirSense communication error. Unable to display nearby manned aircraft and anti-collision warnings. Fly with caution</t>
+          <t>Ambient Light too Weak</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Altitude above the takeoff point exceeds nnn. Always fly in compliance with altitude limitations</t>
+          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn. Cannot enable Follow Me Mode</t>
+          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Ambient Light is too weak.</t>
+          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak</t>
+          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ambient light too low. Vision system and obstacle sensing unavailable. Fly with caution</t>
+          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Backward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Another aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Forward obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Ambient Light too Weak, Vision Positioning obstacle sensing is unavailable. please ensure safety during the flight</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Arrived at End Point</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
+          <t>Arrived at destination</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
+          <t>At Least Two Waypoints Required</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
+          <t>At least two Waypoints are needed</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>63</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Another aircraft is dangerously close, please descend to a safer altitude</t>
+          <t>Attitude is too large.</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Another aircraft is approaching. Descend as soon as possible</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>65</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Another aircraft is nearby. Fly with caution</t>
+          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>APAS has been enabled</t>
+          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>API Automatic Return Home</t>
+          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>API Automatic Takeoff</t>
+          <t>Auto Landing in nnn(s)</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Approaching NFZ or pre-set distance limit of (nnn). Revise Flight Route</t>
+          <t>Auxiliary Bottom Light set to automatic mode</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>71</v>
+        <v>80</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Arrived at destination</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Arrived at End Point</t>
+          <t>Auxiliary Bottom Light turned on</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Away and Follow in progress.</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Executing waypoint mission</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>74</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Waypoint Mission Start</t>
+          <t>Backward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>At least two Waypoints are needed</t>
+          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>At Least Two Waypoints Required</t>
+          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>75</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Attitude is too large.</t>
+          <t>Barometer Dead in Air</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning</t>
+          <t>Barometer initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward obstacle sensing is unavailable</t>
+          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Attitude is too large. Forward obstacle sensing is unavailable</t>
+          <t>Battery Signal Error. Check battery connection.</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>77</v>
+        <v>99</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Attitude is too large. Backward Obstacle Sensing is not functioning.</t>
+          <t>Battery Voltage Difference too large. Check Battery Status</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>77</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Auto Landing in nnn(s)</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Battery cells undervoltage</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light set to automatic mode</t>
+          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned on</t>
+          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Away and Follow in progress.</t>
+          <t>Battery level low. Charge battery</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Battery nnn requires maintenance</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>82</v>
+        <v>94</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>82</v>
+        <v>95</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
+          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>82</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Backward sensor(s) blocked. Obstacle avoidance unavailable. Fly with caution</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Barometer Dead in Air</t>
+          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Barometer initialization failed. Restart aircraft</t>
+          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Battery Alert Battery installation error. Please check the batteries are inserted correctly</t>
+          <t>Battery temperature too low. Fly with caution</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>88</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Battery cells undervoltage</t>
+          <t>Battery: Connection Error</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Battery communication malfunction. Reinstall battery. If the issue persists, replace battery</t>
+          <t>Battery: Low Voltage Protection</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>90</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Battery: Overcurrent During Discharge</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>91</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Battery installed incorrectly. Detach battery and reinstall it</t>
+          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Battery level low. Charge battery</t>
+          <t>Braking now! Return sticks to midpoints first.</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>93</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Critical Low Battery</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Critical low battery. Recharge promptly</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Critical low battery. Unable to take off. Recharge promptly</t>
+          <t>Calibration target not far away enough. Please calibrate using infinity</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Low battery. Recharge promptly</t>
+          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>93</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Remote controller battery level low. Recharge promptly</t>
+          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>93</v>
+        <v>116</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Warning: Critically low battery. Please change the battery</t>
+          <t>Camera Settings ActiveTrack Optimized</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>93</v>
+        <v>118</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Battery nnn requires maintenance</t>
+          <t>Camera Settings Adjusted</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Battery not installed properly. Return to home immediately. Check and re-install battery</t>
+          <t>Camera Settings Adjusted to ActiveTrack</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>95</v>
+        <v>118</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Battery overheating. Stop flying and wait for battery temperature to return to normal</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Battery power limit will automatically reduce the aircraft's mobility to ensure flight safety</t>
+          <t>Camera error. AI Spot-Check failed. Restart camera</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Battery power restricted. Aircraft performance decreased to ensure flight safety. Return to home promptly</t>
+          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Battery Signal Error. Check battery connection.</t>
+          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Battery temperature is below 15 degrees Celsius. Warm up the battery temperature to above 25 degree Celsius to ensure a safe flight.</t>
+          <t>Camera storage full</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
+          <t>Cancel Landing Failed</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>100</v>
+        <v>121</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Battery temperature too low. Fly with caution</t>
+          <t>Cancel Return-to-Home Failed</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Battery Voltage Difference too large. Check Battery Status</t>
+          <t>Cannot Enter TapFly Cannot fly in that direction</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>102</v>
+        <v>126</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Battery: Battery Error. Return home and land soon. View the checklist after landing</t>
+          <t>Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>103</v>
+        <v>130</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Battery: Connection Error</t>
+          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>104</v>
+        <v>136</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Battery: Low Voltage Protection</t>
+          <t>Cannot Track Subject. Cannot Identify Subject</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Battery: Overcurrent During Discharge</t>
+          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Braking now! No use to move the stick right. Avoid the obstacle</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Braking now! Return sticks to midpoints first.</t>
+          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Braking now. Return sticks to midpoints, then continue flying.</t>
+          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>108</v>
+        <v>127</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Cannot enter the selected flight mode. Try again later.</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Cannot exit ActiveTrack</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>110</v>
+        <v>129</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Calibration target not far away enough. Please calibrate using infinity</t>
+          <t>Cannot send ActiveTrack command</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>111</v>
+        <v>131</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>112</v>
+        <v>132</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Camera error. AI Spot-Check failed. Restart camera</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>113</v>
+        <v>133</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Camera Error. Solution: Restart the aircraft, if the problem persists, contact DJI Support</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Camera not calibrated. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected. Image quality affected. Contact DJI Support for assistance</t>
+          <t>Cannot takeoff in a no-fly zone</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Camera sensor error Hardware malfunction: Contact DJI Support to arrange for repairs</t>
+          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>117</v>
+        <v>137</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Camera Settings ActiveTrack Optimized</t>
+          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>118</v>
+        <v>138</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted to ActiveTrack</t>
+          <t>Cannot track subject: Gimbal Tilt too Large</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>118</v>
+        <v>139</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Camera Settings Adjusted</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Camera storage full</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Cancel Landing Failed</t>
+          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>121</v>
+        <v>142</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Failed to cancel landing</t>
+          <t>Capture Failed Cannot enter Pano mode</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Capture Failed Shooting interrupted</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>121</v>
+        <v>144</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Cancel Return-to-Home Failed</t>
+          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>122</v>
+        <v>145</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Failed to cancel Return to Home</t>
+          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>122</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Cannot change current flight mode. Enable Multiple Flight Modes in Settings menu to change.</t>
+          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>123</v>
+        <v>147</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Capture Failed. Shooting is currently not permitted</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Cannot enter ActiveTrack. Ambient Light is too weak</t>
+          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>125</v>
+        <v>149</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Cannot Enter TapFly Cannot fly in that direction</t>
+          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>126</v>
+        <v>150</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Cannot enter TapFly Mode: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>127</v>
+        <v>151</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Cannot enter the selected flight mode. Try again later.</t>
+          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>128</v>
+        <v>152</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Cannot exit ActiveTrack</t>
+          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>129</v>
+        <v>153</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Cannot Identify Subject</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>130</v>
+        <v>153</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Cannot Track Subject. Cannot Identify Subject</t>
+          <t>Command Failed</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>130</v>
+        <v>154</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Cannot send ActiveTrack command</t>
+          <t>Command Timeout</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>131</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>132</v>
+        <v>159</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>133</v>
+        <v>157</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Compass Error. Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>134</v>
+        <v>164</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cannot takeoff in a no-fly zone</t>
+          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>135</v>
+        <v>162</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Cannot Takeoff in Travel Mode. Exit Travel Mode.</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>136</v>
+        <v>157</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Cannot takeoff. Ensure the aircraft battery is properly connected</t>
+          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Cannot track subject: Forward Obstacle Sensing not Responding</t>
+          <t>Compass Error. Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>138</v>
+        <v>158</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Cannot track subject: Gimbal Tilt too Large</t>
+          <t>Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>141</v>
+        <v>163</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Subject too Large. Move Away and retry</t>
+          <t>Compass Error. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>141</v>
+        <v>165</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Small. Get Closer and retry</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>142</v>
+        <v>165</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Subject too Small. Get Closer and retry</t>
+          <t>Compass Interference. Temp Max Altitude : 98ft</t>
         </is>
       </c>
       <c r="B202" t="n">
-        <v>142</v>
+        <v>167</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Capture Failed Cannot enter Pano mode</t>
+          <t>Compass Interference. Temp Max Altitude: nnn</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>143</v>
+        <v>167</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Capture Failed Shooting interrupted</t>
+          <t>Compass Redundancy Switch</t>
         </is>
       </c>
       <c r="B204" t="n">
-        <v>144</v>
+        <v>168</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Capture Failed Stick movement detected. Panorama has stopped</t>
+          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>145</v>
+        <v>169</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Capture Failed. Distance limit exceeded. Cannot shoot panorama</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B206" t="n">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Capture Failed. Insufficient storage space. Cannot shoot panorama</t>
+          <t>Compass data error. Please contact DJI Support</t>
         </is>
       </c>
       <c r="B207" t="n">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Capture Failed. Shooting is currently not permitted</t>
+          <t>Compass direction is not the same with IMU</t>
         </is>
       </c>
       <c r="B208" t="n">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Capture Failed. The aircraft is moving. Cannot shoot panorama</t>
+          <t>Compass error Solution: Move away from ground magnetic interference</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Capture Failed. The gimbal is moving. Cannot shoot panorama</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Check whether propellers are installed correctly. If the propellers are installed correctly and the aircraft still cannot takeoff, a motor error may exist. Contact DJI Support for assistance</t>
+          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Check whether the propellers are attached to the correct motors based on their markings. Incorrect installation will cause the aircraft to roll over during takeoff</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Color display in Liveview is enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Correcting Landing Position</t>
         </is>
       </c>
       <c r="B214" t="n">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Command Failed</t>
+          <t>Critical Low Battery</t>
         </is>
       </c>
       <c r="B215" t="n">
-        <v>154</v>
+        <v>93</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Command Timeout</t>
+          <t>Critical low battery voltage</t>
         </is>
       </c>
       <c r="B216" t="n">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Warning: Command Timeout</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B217" t="n">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Compass error. Ensure there are no metal or magnetic objects near the aircraft and calibrate it before use</t>
+          <t>Critical low battery. Aircraft returning to home</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>156</v>
+        <v>14</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
+          <t>Critical low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>156</v>
+        <v>93</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Compass data error. Please contact DJI Support</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>157</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Critical low battery. Unable to take off. Recharge promptly</t>
         </is>
       </c>
       <c r="B222" t="n">
-        <v>157</v>
+        <v>93</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please contact DJI Support. Compass disconnected</t>
+          <t>Critically Low Power. Aircraft Landing</t>
         </is>
       </c>
       <c r="B223" t="n">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass data error. Please contact DJI Support</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B224" t="n">
-        <v>157</v>
+        <v>174</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Compass direction is not the same with IMU</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B225" t="n">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Compass Error. Compass direction is not the same with IMU</t>
+          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
         </is>
       </c>
       <c r="B226" t="n">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>159</v>
+        <v>175</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Compass Error. Compass disconnected</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B228" t="n">
-        <v>159</v>
+        <v>173</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
         </is>
       </c>
       <c r="B229" t="n">
-        <v>159</v>
+        <v>176</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
         </is>
       </c>
       <c r="B230" t="n">
-        <v>160</v>
+        <v>178</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Compass Error. Compass error Solution: Move away from ground magnetic interference</t>
+          <t>Current elevation above nnn. Fly with caution</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>160</v>
+        <v>177</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Data Recorder File Index is 12.</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Compass Error. Compass data error. Please check the Compass installation and interference</t>
+          <t>Data Recorder File Index is 13.</t>
         </is>
       </c>
       <c r="B233" t="n">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Compass Error. Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Compass interference. Please move the aircraft away from potential interference source or calibrate the compass</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Redundancy Switch</t>
+          <t>Data Recorder File Index is 18.</t>
         </is>
       </c>
       <c r="B236" t="n">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Compass Error. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 19.</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Data Recorder File Index is 2.</t>
         </is>
       </c>
       <c r="B238" t="n">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Data Recorder File Index is 21.</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>166</v>
+        <v>179</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude : 98ft</t>
+          <t>Data Recorder File Index is 29.</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Compass Interference. Temp Max Altitude: nnn</t>
+          <t>Data Recorder File Index is 3.</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Compass Redundancy Switch</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B242" t="n">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Compass Stuck. Restart Aircraft. Contact DJI Support if this persists.</t>
+          <t>Data Recorder File Index is 4.</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Correcting Landing Position</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B244" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Precision Landing. Correcting Landing Position.</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Precision Landing. Rectifying aircraft position.</t>
+          <t>Data Recorder File Index is 5.</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Critical low battery voltage</t>
+          <t>Data Recorder File Index is 57.</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B248" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Data Recorder File Index is 7.</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Data Recorder File Index is 8.</t>
         </is>
       </c>
       <c r="B250" t="n">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing</t>
+          <t>Descending. Exited Visual Avoidance System</t>
         </is>
       </c>
       <c r="B251" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Detecting subject</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Land as soon as possible, otherwise the battery will be damaged</t>
+          <t>Distance limit enabled. Fly safely</t>
         </is>
       </c>
       <c r="B254" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B255" t="n">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>CrystalSky is too hot. Cool down the monitor to prevent overheating</t>
+          <t>Downlink Restored (after 0m 0.9s).</t>
         </is>
       </c>
       <c r="B256" t="n">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Current elevation above nnn. Fly with caution</t>
+          <t>Downlink Restored (after 0m 1.1s).</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Current RTH route will pass a No-Fly zone. Pay attention to the aircraft's position to avoid RTH failure.</t>
+          <t>Downlink Restored (after 0m 1.2s).</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 12.</t>
+          <t>Downlink Restored (after 0m 1.4s).</t>
         </is>
       </c>
       <c r="B259" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 13.</t>
+          <t>Downlink Restored (after 0m 1.5s).</t>
         </is>
       </c>
       <c r="B260" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Downlink Restored (after 0m 1.6s).</t>
         </is>
       </c>
       <c r="B261" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Downlink Restored (after 0m 1.7s).</t>
         </is>
       </c>
       <c r="B262" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 18.</t>
+          <t>Downlink Restored (after 0m 11.3s).</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 19.</t>
+          <t>Downlink Restored (after 0m 11s).</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 2.</t>
+          <t>Downlink Restored (after 0m 1s).</t>
         </is>
       </c>
       <c r="B265" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 21.</t>
+          <t>Downlink Restored (after 0m 2.2s).</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 29.</t>
+          <t>Downlink Restored (after 0m 2.3s).</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 3.</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Downlink Restored (after 0m 5.6s).</t>
         </is>
       </c>
       <c r="B269" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 4.</t>
+          <t>Downlink Restored (after 0m 5.8s).</t>
         </is>
       </c>
       <c r="B270" t="n">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Downlink data connection lost for nnn seconds</t>
         </is>
       </c>
       <c r="B271" t="n">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Downward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B272" t="n">
-        <v>179</v>
+        <v>63</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 5.</t>
+          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
         </is>
       </c>
       <c r="B273" t="n">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 57.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B274" t="n">
-        <v>179</v>
+        <v>82</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Downward ambient light too low. Obstacle avoidance unavailable. Fly with caution. Backward ambient light too low. Backward obstacle avoidance unavailable. Only infrared sensors available. Fly with caution</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>179</v>
+        <v>82</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 7.</t>
+          <t>Downward infrared sensor failure. Land as soon as possible</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 8.</t>
+          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
         </is>
       </c>
       <c r="B277" t="n">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Descending. Exited Visual Avoidance System</t>
+          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Detecting subject</t>
+          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Distance limit enabled. Fly safely</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Downlink data connection lost for nnn seconds</t>
+          <t>During Smart Track, you can control lens zoom within a certain limit</t>
         </is>
       </c>
       <c r="B282" t="n">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>EMMC is full</t>
         </is>
       </c>
       <c r="B283" t="n">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 0.9s).</t>
+          <t>Ensure control sticks are centered during takeoff</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.1s).</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.2s).</t>
+          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>186</v>
+        <v>198</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.4s).</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>186</v>
+        <v>199</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.5s).</t>
+          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B288" t="n">
-        <v>186</v>
+        <v>200</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.6s).</t>
+          <t>Executing waypoint mission</t>
         </is>
       </c>
       <c r="B289" t="n">
-        <v>186</v>
+        <v>74</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1.7s).</t>
+          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B290" t="n">
-        <v>186</v>
+        <v>201</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11.3s).</t>
+          <t>Exited Cruise Control mode</t>
         </is>
       </c>
       <c r="B291" t="n">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 11s).</t>
+          <t>Exited Hyperlapse mode</t>
         </is>
       </c>
       <c r="B292" t="n">
-        <v>186</v>
+        <v>202</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 1s).</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B293" t="n">
-        <v>186</v>
+        <v>203</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.2s).</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>186</v>
+        <v>204</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.3s).</t>
+          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>186</v>
+        <v>205</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B296" t="n">
-        <v>186</v>
+        <v>206</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.6s).</t>
+          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 5.8s).</t>
+          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B298" t="n">
-        <v>186</v>
+        <v>207</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Downward altitude sensor data error. Please contact DJI Support for help</t>
+          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B299" t="n">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Downward infrared sensor failure. Land as soon as possible</t>
+          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>188</v>
+        <v>208</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Downward sensor error. Aircraft unstable at low altitude. Please fly with caution</t>
+          <t>Failed to cancel Return to Home</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>189</v>
+        <v>122</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Downward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Failed to cancel landing</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>190</v>
+        <v>121</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Downward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
         </is>
       </c>
       <c r="B303" t="n">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Drag a box around or tap a target on screen. Then tap Go.</t>
+          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>192</v>
+        <v>210</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>File system error. Change SD card</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>During Smart Track, you can control lens zoom within a certain limit</t>
+          <t>Flight Mode Set to Attitude</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>EMMC is full</t>
+          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
         </is>
       </c>
       <c r="B307" t="n">
-        <v>195</v>
+        <v>212</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Ensure control sticks are centered during takeoff</t>
+          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="B308" t="n">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Flight control mode error, cannot start recording QuickShot</t>
         </is>
       </c>
       <c r="B309" t="n">
-        <v>197</v>
+        <v>213</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Exited Cruise Control mode</t>
+          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
         </is>
       </c>
       <c r="B310" t="n">
-        <v>197</v>
+        <v>214</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Error: Course angle control error. Please ensure the propellers are installed on the correct motors</t>
+          <t>Flight height too low</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>198</v>
+        <v>215</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
         </is>
       </c>
       <c r="B312" t="n">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Excessive gimbal vibration. Check whether gimbal can rotate freely</t>
+          <t>Fly with caution. Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>200</v>
+        <v>156</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Exit Backward Forward Downward Upward Sensing system, Ambient Light is too weak</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B314" t="n">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Exited Hyperlapse mode</t>
+          <t>Forward Obstacle Sensing is not functioning. Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>202</v>
+        <v>63</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B316" t="n">
-        <v>203</v>
+        <v>218</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Forward Obstacle Sensing not Working.</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>204</v>
+        <v>218</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Extended flight distance detected. Always maintain visual line of sight unless otherwise authorized</t>
+          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>206</v>
+        <v>220</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude and distance set. Fly with caution</t>
+          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
         </is>
       </c>
       <c r="B320" t="n">
-        <v>207</v>
+        <v>221</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Extra payload detected. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
         </is>
       </c>
       <c r="B321" t="n">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
+          <t>GPS Position Mismatch.</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>207</v>
+        <v>236</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
+          <t>GPS module error. Restart aircraft</t>
         </is>
       </c>
       <c r="B323" t="n">
-        <v>207</v>
+        <v>235</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
+          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="B324" t="n">
-        <v>207</v>
+        <v>237</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
         </is>
       </c>
       <c r="B325" t="n">
-        <v>208</v>
+        <v>238</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Extra payload detected. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>208</v>
+        <v>239</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Failed to lower or pack up landing gear. Take care of your gimbal when landing</t>
+          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>209</v>
+        <v>239</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Failed to take off. Check the USB connection with aircraft. Contact DJI Support if this error persists after restarting</t>
+          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>210</v>
+        <v>225</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>File system error. Change SD card</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>211</v>
+        <v>230</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. Aircraft may be in violation of local laws and regulations. Check and make sure you have obtained proper authorization to fly in this airspace</t>
+          <t>Gimbal Pitch Reached Movement Limit</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>212</v>
+        <v>230</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn. May violate local policies and regulations. Ensure you have obtained proper airspace authorization</t>
+          <t>Gimbal Recenter</t>
         </is>
       </c>
       <c r="B331" t="n">
-        <v>212</v>
+        <v>231</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Flight control mode error, cannot start recording QuickShot</t>
+          <t>Gimbal Roll Limit Reached.</t>
         </is>
       </c>
       <c r="B332" t="n">
-        <v>213</v>
+        <v>232</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Flight distance may exceed line-of-sight. Fly with caution</t>
+          <t>Gimbal Yaw Limit Reached</t>
         </is>
       </c>
       <c r="B333" t="n">
-        <v>214</v>
+        <v>234</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Flight height too low</t>
+          <t>Gimbal calibrating</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Flight Mode Set to Attitude</t>
+          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
         </is>
       </c>
       <c r="B335" t="n">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Fly with caution and ensure the aircraft remains within your line of sight.</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B336" t="n">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Gimbal nnn pan axis endpoint reached</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Gimbal nnn pitch axis endpoint reached</t>
         </is>
       </c>
       <c r="B338" t="n">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Working.</t>
+          <t>Gimbal nnn roll axis endpoint reached</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>218</v>
+        <v>229</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Forward vision sensor calibration error. Auto calibration in progress</t>
+          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>219</v>
+        <v>233</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Forward vision sensor error. Contact DJI Support for assistance</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B341" t="n">
-        <v>220</v>
+        <v>240</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Gyroscope initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>GEO Zone Info: The target area is in an Altitude Zone. Flight altitude restricted to nnn</t>
+          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
         </is>
       </c>
       <c r="B343" t="n">
-        <v>221</v>
+        <v>243</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant). Fly with caution</t>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
         </is>
       </c>
       <c r="B344" t="n">
-        <v>222</v>
+        <v>242</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Gimbal calibrating</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Gimbal calibration error. Restart aircraft or contact DJI Support if the issue persists</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
         </is>
       </c>
       <c r="B346" t="n">
-        <v>224</v>
+        <v>243</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Gimbal IMU data error. Contact DJI Support for assistance</t>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B347" t="n">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
         </is>
       </c>
       <c r="B348" t="n">
-        <v>226</v>
+        <v>243</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Gimbal nnn pan axis endpoint reached</t>
+          <t>High wind velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>227</v>
+        <v>243</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Gimbal nnn pitch axis endpoint reached</t>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
         </is>
       </c>
       <c r="B350" t="n">
-        <v>228</v>
+        <v>242</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Gimbal nnn roll axis endpoint reached</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>229</v>
+        <v>244</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B352" t="n">
-        <v>230</v>
+        <v>244</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Reached Movement Limit</t>
+          <t>Home Point Recorded.</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>230</v>
+        <v>245</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Gimbal Recenter</t>
+          <t>Home Point Recorded. RTH Altitude : 30m.</t>
         </is>
       </c>
       <c r="B354" t="n">
-        <v>231</v>
+        <v>246</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Gimbal Roll Limit Reached.</t>
+          <t>Home Point Recorded. Taking off.</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>232</v>
+        <v>247</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Gimbal stuck. Check whether gimbal lock is removed and ensure gimbal can rotate freely</t>
+          <t>Home Point Updated.</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>233</v>
+        <v>248</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Gimbal Yaw Limit Reached</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>GPS module error. Restart aircraft</t>
+          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B358" t="n">
-        <v>235</v>
+        <v>244</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>GPS Position Mismatch.</t>
+          <t>Home Point updated. RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B359" t="n">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>GPS signal low. Aircraft unable to auto hover and takeoff restricted. Move to environment with adequate light. Unlocking takeoff restrictions not recommended</t>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
         </is>
       </c>
       <c r="B360" t="n">
-        <v>237</v>
+        <v>253</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>GPS signal weak. Fly with caution. Aircraft in Altitude Zone. Max altitude set to nnn</t>
+          <t>IMU calibration required. Calibrate IMU</t>
         </is>
       </c>
       <c r="B361" t="n">
-        <v>238</v>
+        <v>254</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>GPS signal weak. Hovering unstable. Fly with caution</t>
+          <t>IMU not calibrated. Calibrate IMU</t>
         </is>
       </c>
       <c r="B362" t="n">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>GPS signal weak. Positioning accuracy affected. Fly with caution</t>
+          <t>IMU warming up. Wait before taking off</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>239</v>
+        <v>255</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Image Transmission Recovered. Aircraft is returning home.</t>
         </is>
       </c>
       <c r="B364" t="n">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
+          <t>Image transmission signal lost</t>
         </is>
       </c>
       <c r="B365" t="n">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
         </is>
       </c>
       <c r="B366" t="n">
-        <v>240</v>
+        <v>252</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Gyroscope initialization failed. Restart aircraft</t>
+          <t>Impact detected. Restart aircraft</t>
         </is>
       </c>
       <c r="B367" t="n">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>In Flight.</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>242</v>
+        <v>257</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Insufficient SD card space. Change card or delete files</t>
         </is>
       </c>
       <c r="B370" t="n">
-        <v>243</v>
+        <v>258</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. Downlink Lost.</t>
+          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
         </is>
       </c>
       <c r="B371" t="n">
-        <v>243</v>
+        <v>259</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Landing Canceled.</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>243</v>
+        <v>121</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Landing Gear Lowered.</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>High wind velocity. Fly with caution.</t>
+          <t>Landing Gear Lowering.</t>
         </is>
       </c>
       <c r="B374" t="n">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>High Wind Velocity: Fly with caution and ensure the aircraft remains within your line of sight</t>
+          <t>Landing Gear Paused.</t>
         </is>
       </c>
       <c r="B375" t="n">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Large Wind Velocity.</t>
+          <t>Landing Gear Raised.</t>
         </is>
       </c>
       <c r="B376" t="n">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Large Wind Velocity. Fly with caution.</t>
+          <t>Landing Gear Raising.</t>
         </is>
       </c>
       <c r="B377" t="n">
-        <v>243</v>
+        <v>264</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Strong wind. Fly with caution</t>
+          <t>Landing Gear Raising. Home Point Recorded</t>
         </is>
       </c>
       <c r="B378" t="n">
-        <v>243</v>
+        <v>265</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT</t>
+          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
         </is>
       </c>
       <c r="B379" t="n">
-        <v>244</v>
+        <v>266</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Home Point Recorded, Return-to-Home Altitude : 98FT.</t>
+          <t>Landing gear function restored</t>
         </is>
       </c>
       <c r="B380" t="n">
-        <v>244</v>
+        <v>260</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT</t>
+          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Home Point recorded. Return-to-Home Altitude : 98FT.</t>
+          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>244</v>
+        <v>262</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Landing.</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>244</v>
+        <v>267</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT</t>
+          <t>Large Wind Velocity.</t>
         </is>
       </c>
       <c r="B384" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Large Wind Velocity. Fly with caution.</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Home Point Recorded.</t>
+          <t>Lens not connected</t>
         </is>
       </c>
       <c r="B386" t="n">
-        <v>245</v>
+        <v>268</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Home Point Recorded. RTH Altitude : 30m.</t>
+          <t>Lighting environment too dark. Vision System unavailable. Fly with caution</t>
         </is>
       </c>
       <c r="B387" t="n">
-        <v>246</v>
+        <v>63</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Home Point Recorded. Taking off.</t>
+          <t>Lighting environment too dark. Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B388" t="n">
-        <v>247</v>
+        <v>63</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
         </is>
       </c>
       <c r="B389" t="n">
-        <v>248</v>
+        <v>269</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Home Point updated. RTH altitude adjusted to nnn</t>
+          <t>Loading database failed. Geo-awareness function degraded</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>249</v>
+        <v>270</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Image Transmission Recovered. Aircraft is returning home.</t>
+          <t>Locating Landing Point</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>250</v>
+        <v>271</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Image transmission signal lost</t>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
         </is>
       </c>
       <c r="B392" t="n">
-        <v>251</v>
+        <v>274</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Impact detected. Aircraft stopped. Restart aircraft</t>
+          <t>Low Power. Returning home.</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>252</v>
+        <v>274</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Impact detected. Restart aircraft</t>
+          <t>Low battery voltage. Fly with caution</t>
         </is>
       </c>
       <c r="B394" t="n">
-        <v>252</v>
+        <v>272</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Low battery. Recharge promptly</t>
         </is>
       </c>
       <c r="B395" t="n">
-        <v>253</v>
+        <v>93</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>IMU calibration required. Calibrate IMU</t>
+          <t>Low battery. Return to home promptly</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>254</v>
+        <v>14</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Low power, please replace the battery</t>
         </is>
       </c>
       <c r="B397" t="n">
-        <v>254</v>
+        <v>273</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>IMU warming up. Wait before taking off</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>In Flight.</t>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>256</v>
+        <v>276</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Incompatible firmware version. Go to Profile &gt; Settings to update firmware</t>
+          <t>Manned aircraft approaching. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Insufficient SD card space. Change card or delete files</t>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B401" t="n">
-        <v>258</v>
+        <v>278</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>SD card full. Change card or delete files</t>
+          <t>Manned aircraft too close. Fly at a safe altitude</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>258</v>
+        <v>279</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Intelligent Flight Modes have not been enabled. Enable this option in Main Controller Settings if needed.</t>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
         </is>
       </c>
       <c r="B403" t="n">
-        <v>259</v>
+        <v>280</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B404" t="n">
-        <v>260</v>
+        <v>282</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Landing Gear Lowered.</t>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
         </is>
       </c>
       <c r="B405" t="n">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Landing Gear Lowering.</t>
+          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
         </is>
       </c>
       <c r="B406" t="n">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Maximum Flight Altitude Reached.</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
         </is>
       </c>
       <c r="B408" t="n">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>262</v>
+        <v>283</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
         </is>
       </c>
       <c r="B410" t="n">
-        <v>262</v>
+        <v>283</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Min Waypoint Distance: nnn</t>
         </is>
       </c>
       <c r="B411" t="n">
-        <v>263</v>
+        <v>285</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Landing Gear Raised.</t>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
         </is>
       </c>
       <c r="B412" t="n">
-        <v>264</v>
+        <v>286</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Landing Gear Raising.</t>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>264</v>
+        <v>287</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
         </is>
       </c>
       <c r="B414" t="n">
-        <v>265</v>
+        <v>295</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Landing Protection Activated. Aircraft will decelerate during landing.</t>
+          <t>Motor error. Check propellers and fly with caution</t>
         </is>
       </c>
       <c r="B415" t="n">
-        <v>266</v>
+        <v>288</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Landing.</t>
+          <t>Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Lens not connected</t>
+          <t>Motor is Blocked</t>
         </is>
       </c>
       <c r="B417" t="n">
-        <v>268</v>
+        <v>290</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>269</v>
+        <v>291</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Loading database failed. Geo-awareness function degraded</t>
+          <t>Motor is idling (lost or missing propeller)</t>
         </is>
       </c>
       <c r="B419" t="n">
-        <v>270</v>
+        <v>292</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Locating Landing Point</t>
+          <t>Motor nnn propeller detached or installed incorrectly</t>
         </is>
       </c>
       <c r="B420" t="n">
-        <v>271</v>
+        <v>293</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Motor nnn stalled. Land aircraft immediately</t>
         </is>
       </c>
       <c r="B421" t="n">
-        <v>271</v>
+        <v>294</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Precision Landing. Locating Landing Point</t>
+          <t>Motor or propeller error. Check the motors and propellers.</t>
         </is>
       </c>
       <c r="B422" t="n">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Low battery voltage. Fly with caution</t>
+          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="B423" t="n">
-        <v>272</v>
+        <v>296</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Low power, please replace the battery</t>
+          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B424" t="n">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
         </is>
       </c>
       <c r="B425" t="n">
-        <v>274</v>
+        <v>297</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Motor unable to rotate. Check motor</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>274</v>
+        <v>298</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Motors Started.</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>275</v>
+        <v>299</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Navigation system error. Restart aircraft</t>
         </is>
       </c>
       <c r="B428" t="n">
-        <v>276</v>
+        <v>300</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Manned aircraft approaching. Fly at a safe altitude</t>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B429" t="n">
-        <v>277</v>
+        <v>301</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>278</v>
+        <v>301</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Manned aircraft too close. Fly at a safe altitude</t>
+          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>279</v>
+        <v>302</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>280</v>
+        <v>303</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t xml:space="preserve">Max altitude reached (Altitude limit: nnn) </t>
+          <t>No SD card. Insert card</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>281</v>
+        <v>304</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Not Allowed to change Aircraft Mode. If needed</t>
         </is>
       </c>
       <c r="B434" t="n">
-        <v>282</v>
+        <v>305</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached. Adjust altitude in MC Settings if required.</t>
+          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
         </is>
       </c>
       <c r="B435" t="n">
-        <v>282</v>
+        <v>305</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Not Enough Force/ESC Error</t>
         </is>
       </c>
       <c r="B436" t="n">
-        <v>282</v>
+        <v>306</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Object too close to laser rangefinder</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Maximum Flight Distance Reached. Adjust distance in MC Settings if required.</t>
+          <t>Object too far for laser rangefinder</t>
         </is>
       </c>
       <c r="B438" t="n">
-        <v>283</v>
+        <v>308</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B439" t="n">
-        <v>283</v>
+        <v>309</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Maximum Flight Altitude Reached.</t>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Reaching maximum altitude...</t>
+          <t>Obstacle Avoidance disabled. Fly with caution</t>
         </is>
       </c>
       <c r="B441" t="n">
-        <v>284</v>
+        <v>310</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Min Waypoint Distance: nnn</t>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>285</v>
+        <v>262</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Obstacle Avoidance will be disabled in landing.</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>286</v>
+        <v>311</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Obstacle Avoided. Revise Flight Route</t>
         </is>
       </c>
       <c r="B444" t="n">
-        <v>287</v>
+        <v>312</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Motor error. Check propellers and fly with caution</t>
+          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
         </is>
       </c>
       <c r="B445" t="n">
-        <v>288</v>
+        <v>314</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Motor or propeller error. Check the motors and propellers.</t>
+          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>288</v>
+        <v>313</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Motor idle. Check whether propellers are installed</t>
+          <t>PalmControl in Process</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>289</v>
+        <v>315</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Motor is Blocked</t>
+          <t>Pano shooting completed. The sky part is filled automatically</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>290</v>
+        <v>316</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Pano successful</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>291</v>
+        <v>317</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor stuck. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Panorama Captured Successfully</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>291</v>
+        <v>318</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Motor is idling (lost or missing propeller)</t>
+          <t>Payload mode enabled. Max altitude and distance set. Fly with caution</t>
         </is>
       </c>
       <c r="B451" t="n">
-        <v>292</v>
+        <v>207</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Motor nnn propeller detached or installed incorrectly</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn to ensure flight safety</t>
         </is>
       </c>
       <c r="B452" t="n">
-        <v>293</v>
+        <v>207</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Motor nnn stalled. Land aircraft immediately</t>
+          <t>Payload mode enabled. Max altitude set to nnn and max distance set to nnn. Fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>294</v>
+        <v>207</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Motor Obstructed. Propulsion output is limited to ensure the health of the battery</t>
+          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
         </is>
       </c>
       <c r="B454" t="n">
-        <v>295</v>
+        <v>319</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Motor speed error. Land or return to home promptly. After powering off the aircraft, replace the propeller on the beeping ESC. If the issue persists, contact DJI Support</t>
+          <t>Precision Landing</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>296</v>
+        <v>271</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t xml:space="preserve">Motor unable to rotate. Check for objects blocking motor or contact DJI Support for assistance </t>
+          <t>Precision Landing. Correcting Landing Position.</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>297</v>
+        <v>170</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Motor unable to rotate. Check motor</t>
+          <t>Precision Landing. Locating Landing Point</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>298</v>
+        <v>271</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Precision Landing. Rectifying aircraft position.</t>
         </is>
       </c>
       <c r="B458" t="n">
-        <v>299</v>
+        <v>170</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Navigation system error. Restart aircraft</t>
+          <t>Propeller Fell Off</t>
         </is>
       </c>
       <c r="B459" t="n">
-        <v>300</v>
+        <v>320</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
         </is>
       </c>
       <c r="B460" t="n">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
         </is>
       </c>
       <c r="B461" t="n">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to take off. Move to an open area or exit flight tutorial</t>
+          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>302</v>
+        <v>323</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>No GPS. Return to Home failed. Return the aircraft to home manually</t>
+          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>303</v>
+        <v>324</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>No SD card. Insert card</t>
+          <t>Propellers not installed</t>
         </is>
       </c>
       <c r="B464" t="n">
-        <v>304</v>
+        <v>325</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed</t>
+          <t>Propulsion output has been limited to ensure battery health.</t>
         </is>
       </c>
       <c r="B465" t="n">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Not Allowed to change Aircraft Mode. If needed, enable it in Main Controller Settings</t>
+          <t>QuickShot has ended</t>
         </is>
       </c>
       <c r="B466" t="n">
-        <v>305</v>
+        <v>327</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Not Enough Force/ESC Error</t>
+          <t>RTH : Ascending to RTH altitude.</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>306</v>
+        <v>342</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Object too close to laser rangefinder</t>
+          <t>RTH : Cruise.</t>
         </is>
       </c>
       <c r="B468" t="n">
-        <v>307</v>
+        <v>343</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Object too far for laser rangefinder</t>
+          <t>RTH : Heading alignment.</t>
         </is>
       </c>
       <c r="B469" t="n">
-        <v>308</v>
+        <v>344</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled.</t>
+          <t>RTH : Preascending.</t>
         </is>
       </c>
       <c r="B470" t="n">
-        <v>309</v>
+        <v>345</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Fly with caution</t>
+          <t>RTH Altitude : 65FT.</t>
         </is>
       </c>
       <c r="B471" t="n">
-        <v>310</v>
+        <v>346</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance will be disabled in landing.</t>
+          <t>RTH Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>311</v>
+        <v>346</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Obstacle Avoided. Revise Flight Route</t>
+          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
         </is>
       </c>
       <c r="B473" t="n">
-        <v>312</v>
+        <v>347</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Obstacle sensing not available at night. Adjust RTH altitude to above tallest surrounding building before flying</t>
+          <t>RTH altitude adjusted to nnn</t>
         </is>
       </c>
       <c r="B474" t="n">
-        <v>313</v>
+        <v>348</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Obstacle Sensing will be disabled when aircraft is landing. Fly with caution.</t>
+          <t>RTK Base Station Data Not Received</t>
         </is>
       </c>
       <c r="B475" t="n">
-        <v>314</v>
+        <v>349</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>PalmControl in Process</t>
+          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>315</v>
+        <v>349</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Pano shooting completed. The sky part is filled automatically</t>
+          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
         </is>
       </c>
       <c r="B477" t="n">
-        <v>316</v>
+        <v>350</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Pano successful</t>
+          <t>Reaching maximum altitude...</t>
         </is>
       </c>
       <c r="B478" t="n">
-        <v>317</v>
+        <v>284</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Panorama Captured Successfully</t>
+          <t>Recenter Gimbal Pan</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>318</v>
+        <v>328</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Payload mode enabled. Return the aircraft to an area nearby the home point promptly to ensure flight safety</t>
+          <t>Recharge promptly</t>
         </is>
       </c>
       <c r="B480" t="n">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Propeller Fell Off</t>
+          <t>Rectifying aircraft position</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Propeller Fell Off. Motor idle. Check whether propellers are installed</t>
+          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>321</v>
+        <v>334</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Propeller Guard Mounted Propeller Guard mounted. Forward Obstacle Sensing will be automatically switched off</t>
+          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
         </is>
       </c>
       <c r="B483" t="n">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Propeller guard or extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Remote ID functionality normal</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>323</v>
+        <v>338</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Propeller rotating too fast. Wind resistance affected. Return to home and land promptly. Check whether propeller on beeping ESC is warped or damaged</t>
+          <t>Remote controller assisted takeoff initiated.</t>
         </is>
       </c>
       <c r="B485" t="n">
-        <v>324</v>
+        <v>331</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Propellers not installed</t>
+          <t>Remote controller battery level low. Recharge promptly</t>
         </is>
       </c>
       <c r="B486" t="n">
-        <v>325</v>
+        <v>93</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Propulsion output has been limited to ensure battery health.</t>
+          <t>Remote controller disconnected from aircraft</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Remote controller signal lost</t>
         </is>
       </c>
       <c r="B489" t="n">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Recharge promptly</t>
+          <t>Remote controller signal weak. Adjust remote controller antennas</t>
         </is>
       </c>
       <c r="B490" t="n">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="B491" t="n">
-        <v>330</v>
+        <v>339</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Remote controller assisted takeoff initiated.</t>
+          <t>Restart aircraft and DJI Fly</t>
         </is>
       </c>
       <c r="B492" t="n">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Remote controller disconnected from aircraft</t>
+          <t>Return-to-Home Altitude : 65FT</t>
         </is>
       </c>
       <c r="B493" t="n">
-        <v>332</v>
+        <v>244</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Return-to-Home Altitude : 98FT</t>
         </is>
       </c>
       <c r="B494" t="n">
-        <v>333</v>
+        <v>244</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Remote Controller Right Dial Locked. Lightly press it to adjust.</t>
+          <t>Return-to-Home Altitude : 98FT.</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>334</v>
+        <v>244</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Right Dial Locked. Lightly press to adjust.</t>
+          <t>Returning to the Home Point</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Remote controller signal lost</t>
+          <t>Right Dial Locked. Lightly press to adjust.</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Remote controller signal weak. Adjust remote controller antennas</t>
+          <t>Running Flight Simulator. Restart aircraft to take off</t>
         </is>
       </c>
       <c r="B498" t="n">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Remote ID error. Connect to network to obtain mobile device location. Flying without broadcasting required remote ID messages may violate local regulations</t>
+          <t>SD card full. Change card or delete files</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>337</v>
+        <v>258</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Remote ID functionality normal</t>
+          <t>SD card malfunction. Change card</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Restart aircraft</t>
+          <t>SD card speed low. Change card</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>339</v>
+        <v>354</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Restart aircraft and DJI Fly</t>
+          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>340</v>
+        <v>355</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Returning to the Home Point</t>
+          <t>Satellite positioning off. Fly with Caution.</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>341</v>
+        <v>352</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Sensing system is blocked or too close to the obstacle.</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>RTH : Cruise.</t>
+          <t>Set Flight Mode to GPS to fly safe</t>
         </is>
       </c>
       <c r="B505" t="n">
-        <v>343</v>
+        <v>357</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Setting new Maximum Flight Altitude to nnn</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>344</v>
+        <v>358</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>RTH : Preascending.</t>
+          <t>Setting new Return-To-Home altitude to nnn</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>345</v>
+        <v>359</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>346</v>
+        <v>360</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
         </is>
       </c>
       <c r="B509" t="n">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT. Data Recorder File Index is 1.</t>
+          <t>Sprayer turned ON</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>347</v>
+        <v>362</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>RTH altitude adjusted to nnn</t>
+          <t>Starting Smart Track</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received</t>
+          <t>Strong Aircraft Interference</t>
         </is>
       </c>
       <c r="B512" t="n">
-        <v>349</v>
+        <v>364</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>RTK Base Station Data Not Received. Please make sure base station antenna is connected to the correct port</t>
+          <t>Strong Interference Detected. Be careful when flying long distances.</t>
         </is>
       </c>
       <c r="B513" t="n">
-        <v>349</v>
+        <v>365</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>RTK signal weak. Move to an open area for takeoff or turn off RTK</t>
+          <t>Strong Interference Now. Fly with caution.</t>
         </is>
       </c>
       <c r="B514" t="n">
-        <v>350</v>
+        <v>27</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Running Flight Simulator. Restart aircraft to take off</t>
+          <t>Strong Interference to Aircraft. Signal interruption may be more likely. Fly with caution.</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>351</v>
+        <v>27</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Satellite positioning off. Fly with Caution.</t>
+          <t>Strong Interference to Remote Controller. Signal interruption maybe more likely. Fly with caution</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>352</v>
+        <v>27</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>SD card malfunction. Change card</t>
+          <t>Strong Interference. Fly with caution.</t>
         </is>
       </c>
       <c r="B517" t="n">
-        <v>353</v>
+        <v>27</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>SD card speed low. Change card</t>
+          <t>Strong Remote Controller Interference</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>SD card write speed is too slow. Not suitable for shooting a 4K video.</t>
+          <t>Strong Remote Controller Interference.</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Sensing system is blocked or too close to the obstacle.</t>
+          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>356</v>
+        <v>367</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Set Flight Mode to GPS to fly safe</t>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>357</v>
+        <v>367</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Setting new Maximum Flight Altitude to nnn</t>
+          <t>Strong wind. Fly with caution</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>358</v>
+        <v>243</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Setting new Return-To-Home altitude to nnn</t>
+          <t>Strong wireless interference. Please fly with caution.</t>
         </is>
       </c>
       <c r="B523" t="n">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Sprayer turned OFF, sprayed nnn at nnn liters/min</t>
+          <t>Subject lost. Reselect subject</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>361</v>
+        <v>370</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Subject lost. Searching …</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>362</v>
+        <v>371</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Starting Smart Track</t>
+          <t>Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>363</v>
+        <v>141</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Strong Aircraft Interference</t>
+          <t>Subject too Small. Get Closer and retry</t>
         </is>
       </c>
       <c r="B528" t="n">
-        <v>364</v>
+        <v>142</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Strong Interference Detected. Be careful when flying long distances.</t>
+          <t>Switched to A (Attitude)-mode</t>
         </is>
       </c>
       <c r="B529" t="n">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference</t>
+          <t>Switched to P (Positioning)-mode.</t>
         </is>
       </c>
       <c r="B530" t="n">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Strong Remote Controller Interference.</t>
+          <t>Switched to S (Sport)-mode.</t>
         </is>
       </c>
       <c r="B531" t="n">
-        <v>366</v>
+        <v>375</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to fly stably. Lower altitude immediately and manually return to home</t>
+          <t>Switched to T (Tripod)-mode.</t>
         </is>
       </c>
       <c r="B532" t="n">
-        <v>367</v>
+        <v>376</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
         </is>
       </c>
       <c r="B533" t="n">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution.</t>
+          <t>Take off and retry this function.</t>
         </is>
       </c>
       <c r="B534" t="n">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Strong wireless interference. Please fly with caution. Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Take off in P-Mode</t>
         </is>
       </c>
       <c r="B535" t="n">
-        <v>369</v>
+        <v>378</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Subject lost. Reselect subject</t>
+          <t>Taking Off.</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>370</v>
+        <v>379</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Subject lost. Searching …</t>
+          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
         </is>
       </c>
       <c r="B537" t="n">
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>Switched to A (Attitude)-mode</t>
+          <t>Tap the screen lightly to focus.</t>
         </is>
       </c>
       <c r="B538" t="n">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>Switched to gimbal free mode. Use the RC to control aircraft yaw</t>
+          <t>Tap the screen to focus.</t>
         </is>
       </c>
       <c r="B539" t="n">
-        <v>373</v>
+        <v>381</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>Switched to P (Positioning)-mode.</t>
+          <t>Tap to choose a valid zone.</t>
         </is>
       </c>
       <c r="B540" t="n">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Target lost. QuickShots stopped</t>
         </is>
       </c>
       <c r="B541" t="n">
-        <v>375</v>
+        <v>383</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>The aircraft is flying back to the start point</t>
         </is>
       </c>
       <c r="B542" t="n">
-        <v>376</v>
+        <v>33</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>Take off and retry this function.</t>
+          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
         </is>
       </c>
       <c r="B543" t="n">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>378</v>
+        <v>385</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>Taking Off.</t>
+          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>379</v>
+        <v>386</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>Tap Fly Flight Ended. Landing Gear Lowered</t>
+          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
         </is>
       </c>
       <c r="B546" t="n">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>Tap the screen lightly to focus.</t>
+          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>Tap the screen to focus.</t>
+          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
         </is>
       </c>
       <c r="B548" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>Tap to choose a valid zone.</t>
+          <t>Unable to take off</t>
         </is>
       </c>
       <c r="B549" t="n">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>Target lost. QuickShots stopped</t>
+          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>383</v>
+        <v>391</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>The flight attitude angle is larger in Sport mode. The gimbal will rotate when the aircraft starts or stops. Use Normal mode if required for stable shooting</t>
+          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Upward Obstacle Detected</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>385</v>
+        <v>393</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
+          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>385</v>
+        <v>394</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>Tip: Aircraft reached maximum distance, please pay attention to flight safety</t>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
         </is>
       </c>
       <c r="B554" t="n">
-        <v>386</v>
+        <v>220</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>Tip: Only the first camera can tap-zoom in dual gimbal control mode</t>
+          <t>Vision sensor(s) blocked. Fly with caution</t>
         </is>
       </c>
       <c r="B555" t="n">
-        <v>387</v>
+        <v>395</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>Tip: When multi-gimbals are controlled together, only the first gimbal spotlight feature is available</t>
+          <t>Vision systems and obstacle avoidance disabled</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>To take off in non-P mode, toggle Flight Mode Switch to another mode and then toggle it back.</t>
+          <t>Visual positioning inaccurate. Fly with caution</t>
         </is>
       </c>
       <c r="B557" t="n">
-        <v>389</v>
+        <v>397</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>Unable to take off</t>
+          <t>Warning</t>
         </is>
       </c>
       <c r="B558" t="n">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>Unable to take off in low light environment. Ensure there are no metal and magnetic objects near the aircraft and calibrate compass</t>
+          <t>Warning. The remaining battery is only enough for RTH. Return home now.</t>
         </is>
       </c>
       <c r="B559" t="n">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>Unknown Error, Cannot Takeoff. Contact DJI support</t>
+          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>392</v>
+        <v>399</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>Upward Obstacle Detected</t>
+          <t>Warning: Battery Temperature Below 15°C (59F). Warm battery to above 25°C (77F) before flying</t>
         </is>
       </c>
       <c r="B561" t="n">
-        <v>393</v>
+        <v>100</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>Video cache has stopped because there is not enough storage space. You can enable Auto Cache Clear or manually delete cache to get enough space</t>
+          <t>Warning: Command Failed</t>
         </is>
       </c>
       <c r="B562" t="n">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>Vision sensor(s) blocked. Fly with caution</t>
+          <t>Warning: Command Timeout</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>395</v>
+        <v>155</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Warning: Critically low battery. Please change the battery</t>
         </is>
       </c>
       <c r="B564" t="n">
-        <v>396</v>
+        <v>93</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>Visual positioning inaccurate. Fly with caution</t>
+          <t>Warning: Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
         </is>
       </c>
       <c r="B565" t="n">
-        <v>397</v>
+        <v>282</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>Warning</t>
+          <t>Warning: Motor Obstructed</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>Warning: Aircraft is less than nnn (minimum) away from the object below</t>
+          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
         </is>
       </c>
       <c r="B567" t="n">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>Warning: Command Failed</t>
+          <t>Waypoint Mission Paused</t>
         </is>
       </c>
       <c r="B568" t="n">
-        <v>400</v>
+        <v>403</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>Warning: Motor Obstructed</t>
+          <t>Waypoint Mission Resumed</t>
         </is>
       </c>
       <c r="B569" t="n">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>Warning: Motor Overloaded. Aircraft will decelerate to ensure safety</t>
+          <t>Waypoint Mission Start</t>
         </is>
       </c>
       <c r="B570" t="n">
-        <v>402</v>
+        <v>74</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
         </is>
       </c>
       <c r="B571" t="n">
-        <v>403</v>
+        <v>239</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>Waypoint Mission Resumed</t>
+          <t>Weak GPS signal. Positioning accuracy may be compromised. Please fly with caution</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>404</v>
+        <v>239</v>
       </c>
     </row>
     <row r="573">
